--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="3195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588"/>
   </bookViews>
   <sheets>
-    <sheet name="Show" sheetId="1" r:id="rId1"/>
+    <sheet name="Show" sheetId="9" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="2" r:id="rId2"/>
     <sheet name="ShowInNewPage" sheetId="3" r:id="rId3"/>
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="6" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="7" r:id="rId6"/>
-    <sheet name="AdvanveSearch" sheetId="8" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
   <si>
     <t>Report Channel</t>
   </si>
@@ -76,9 +80,6 @@
     <t>Is equal to</t>
   </si>
   <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
@@ -101,6 +102,63 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>26-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>50014</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Santosh</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>27-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -136,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,21 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +506,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,8 +520,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -470,23 +536,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,23 +588,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,23 +614,23 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,23 +640,23 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,20 +666,20 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -629,15 +695,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,19 +741,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -714,11 +780,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -731,18 +797,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +832,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -783,16 +849,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,15 +899,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -869,8 +947,14 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,23 +964,204 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
   <si>
     <t>Report Channel</t>
   </si>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,11 +548,11 @@
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,10 +575,13 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,10 +604,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -626,11 +632,11 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,11 +658,11 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -678,7 +684,7 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -901,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9298C21A-EFE2-45CF-97B9-6711DBAAC45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="ExportReport" sheetId="6" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="7" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
+    <sheet name="Queries" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
   <si>
     <t>Report Channel</t>
   </si>
@@ -50,9 +52,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -159,12 +158,45 @@
   </si>
   <si>
     <t>27-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT distinct AST.AgentID as [Agent ID], ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+ISNULL(T.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name]
+FROM  [dbo].[AGT_Agent_StatusTrack] AST  with(nolock) left join AGT_Agent A on A.AvayaLoginID=AST.agentid
+left join AGT_Agent B on A.PrimarySupervisorID=B.ID left join AGT_Teams T on A.TeamID=T.TeamID 
+WHERE format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &gt;= 'ReportBeforeDate' AND 
+format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &lt;='ReportAfterDate' ORDER BY [Agent Name]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT distinct AST.AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+AST.StationID as [Station ID], 
+AST.[Status],AST.StatusType as [Status Type], 
+format(dbo.VARCHARTODATETIME(AST.[TimeStamp]),'dd/MM/yyyy HH:mm:ss') as [TimeStamp]   
+FROM  [dbo].[AGT_Agent_StatusTrack] AST  with(nolock)
+left join AGT_Agent a on a.AvayaLoginID=AST.agentid
+WHERE format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &gt;= 'ReportBeforeDate'
+AND format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &lt;='ReportAfterDate' 
+AND AgentID like 'AgentIdCapturedFromUI' ORDER BY [TimeStamp] desc
+</t>
+  </si>
+  <si>
+    <t>02-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-10-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,10 +226,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,23 +521,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,24 +551,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -533,26 +577,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,129 +607,129 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -694,22 +738,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,18 +767,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -743,23 +787,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,27 +814,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -799,22 +843,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,18 +872,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -848,23 +892,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,27 +919,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -904,28 +948,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,238 +980,307 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7265625" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9298C21A-EFE2-45CF-97B9-6711DBAAC45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84521747-F064-4DCC-9187-897CFCE51382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>Report Channel</t>
   </si>
@@ -175,7 +175,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT distinct AST.AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+    <t>02-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>26-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT distinct ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
 AST.StationID as [Station ID], 
 AST.[Status],AST.StatusType as [Status Type], 
 format(dbo.VARCHARTODATETIME(AST.[TimeStamp]),'dd/MM/yyyy HH:mm:ss') as [TimeStamp]   
@@ -183,14 +189,14 @@
 left join AGT_Agent a on a.AvayaLoginID=AST.agentid
 WHERE format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &gt;= 'ReportBeforeDate'
 AND format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &lt;='ReportAfterDate' 
-AND AgentID like 'AgentIdCapturedFromUI' ORDER BY [TimeStamp] desc
+AND AgentID like 'AgentIdCapturedFromUI' ORDER BY [TimeStamp] Asc
 </t>
   </si>
   <si>
-    <t>02-11-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>26-10-2020 00:00:00</t>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>Ab</t>
   </si>
 </sst>
 </file>
@@ -524,20 +530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -584,19 +590,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,7 +660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,15 +751,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -791,19 +797,19 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,15 +856,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,16 +905,16 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,24 +958,24 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1030,16 +1036,16 @@
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1223,21 +1229,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" customWidth="1"/>
     <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1271,16 +1277,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84521747-F064-4DCC-9187-897CFCE51382}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B06420-78BF-4B97-BEF2-E1861ABF7B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMTimelineReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B06420-78BF-4B97-BEF2-E1861ABF7B43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C7FC84-F056-4424-9374-23F6C3C6250C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -88,27 +88,15 @@
     <t>Contains</t>
   </si>
   <si>
-    <t>garg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>chatbot</t>
-  </si>
-  <si>
     <t>Advanced Search</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>26-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>26-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>Agent ID</t>
   </si>
   <si>
-    <t>50014</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -148,37 +133,16 @@
     <t>ra</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>27-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
     <t>QueryDrillGridOne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT distinct AST.AgentID as [Agent ID], ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
-ISNULL(T.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name]
-FROM  [dbo].[AGT_Agent_StatusTrack] AST  with(nolock) left join AGT_Agent A on A.AvayaLoginID=AST.agentid
-left join AGT_Agent B on A.PrimarySupervisorID=B.ID left join AGT_Teams T on A.TeamID=T.TeamID 
-WHERE format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &gt;= 'ReportBeforeDate' AND 
-format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &lt;='ReportAfterDate' ORDER BY [Agent Name]
-</t>
-  </si>
-  <si>
-    <t>02-11-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>26-10-2020 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT distinct ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
@@ -193,10 +157,37 @@
 </t>
   </si>
   <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>Ab</t>
+    <t>05-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>15-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>50033</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>Maithry</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT distinct AST.AgentID as [Agent ID], ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+ISNULL(T.TeamName,' ') AS [Org.Unit],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name]
+FROM  [dbo].[AGT_Agent_StatusTrack] AST  with(nolock) left join AGT_Agent A on A.AvayaLoginID=AST.agentid
+left join AGT_Agent B on A.PrimarySupervisorID=B.ID left join AGT_Teams T on A.TeamID=T.TeamID 
+WHERE format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &gt;= 'ReportBeforeDate' AND 
+format(dbo.VARCHARTODATETIME( AST.[TimeStamp]),'yyyy-MM-dd HH:mm:ss') &lt;='ReportAfterDate' ORDER BY [Agent Name]
+</t>
   </si>
 </sst>
 </file>
@@ -232,15 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -531,7 +519,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -586,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -642,22 +630,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -671,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -697,10 +685,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -709,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -723,19 +711,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +736,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -796,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +890,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +899,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -942,10 +930,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +946,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -1004,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1021,28 +1009,28 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1056,28 +1044,28 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1091,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1106,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1126,28 +1114,28 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1161,28 +1149,28 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1196,28 +1184,28 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1218,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,33 +1248,33 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
